--- a/src/resources/excel/InitializeData.xlsx
+++ b/src/resources/excel/InitializeData.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuki0\Documents\compass\sourcetree\BlackJackRPG\src\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2FEE124-ED07-4EFD-B139-26E65DDCD0DE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F0706B4-38E5-4273-9CCF-95E23E70A9B5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8964" xr2:uid="{C6B2B902-7F34-4F89-9D96-31CC10F27538}"/>
   </bookViews>
   <sheets>
-    <sheet name="Graphic" sheetId="3" r:id="rId1"/>
-    <sheet name="Scene" sheetId="1" r:id="rId2"/>
+    <sheet name="Image" sheetId="3" r:id="rId1"/>
+    <sheet name="Font" sheetId="5" r:id="rId2"/>
+    <sheet name="Scene" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>シーンのExcelファイル名(.xlsx省略)</t>
     <rPh sb="13" eb="14">
@@ -114,6 +115,34 @@
     <t>ブラックジャックの背景</t>
     <rPh sb="9" eb="11">
       <t>ハイケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フォントファイル名(拡張子を除く)</t>
+    <rPh sb="8" eb="9">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>カクチョウシ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ノゾ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Algerian Condensed Std Regular</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>acsr</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブラックジャック用のオシャレフォント</t>
+    <rPh sb="8" eb="9">
+      <t>ヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -569,8 +598,72 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{209337E7-0A65-4EE1-86B5-DF6B2B4FC877}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="30.69921875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="35.59765625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="35.59765625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56FD5846-B9E1-4646-B450-465F191AEEE7}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -582,7 +675,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="3" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>9</v>
@@ -593,35 +686,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -631,13 +702,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{990E8BB5-1F32-483A-B0EA-63F0C467CE89}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>

--- a/src/resources/excel/InitializeData.xlsx
+++ b/src/resources/excel/InitializeData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuki0\Documents\compass\sourcetree\BlackJackRPG\src\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F0706B4-38E5-4273-9CCF-95E23E70A9B5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD5E5323-281D-49D3-8901-B060A4E4D9DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8964" xr2:uid="{C6B2B902-7F34-4F89-9D96-31CC10F27538}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8964" activeTab="2" xr2:uid="{C6B2B902-7F34-4F89-9D96-31CC10F27538}"/>
   </bookViews>
   <sheets>
     <sheet name="Image" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>シーンのExcelファイル名(.xlsx省略)</t>
     <rPh sb="13" eb="14">
@@ -136,14 +136,54 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>acsr</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ブラックジャック用のオシャレフォント</t>
     <rPh sb="8" eb="9">
       <t>ヨウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>button_hit.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>button_hit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>button_stand.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>button_stand</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヒットボタン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スタンドボタン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>algerian_condensed_std_R</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Menu</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メニューシーン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Battle</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バトルシーン</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -596,9 +636,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{209337E7-0A65-4EE1-86B5-DF6B2B4FC877}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -651,6 +691,28 @@
         <v>14</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -662,9 +724,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56FD5846-B9E1-4646-B450-465F191AEEE7}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -689,10 +749,10 @@
         <v>16</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -704,9 +764,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{990E8BB5-1F32-483A-B0EA-63F0C467CE89}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -730,6 +790,22 @@
         <v>2</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/resources/excel/InitializeData.xlsx
+++ b/src/resources/excel/InitializeData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuki0\Documents\compass\sourcetree\BlackJackRPG\src\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD5E5323-281D-49D3-8901-B060A4E4D9DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91D88017-AFEF-414A-A984-703A4256EC66}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8964" activeTab="2" xr2:uid="{C6B2B902-7F34-4F89-9D96-31CC10F27538}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8964" activeTab="1" xr2:uid="{C6B2B902-7F34-4F89-9D96-31CC10F27538}"/>
   </bookViews>
   <sheets>
     <sheet name="Image" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>シーンのExcelファイル名(.xlsx省略)</t>
     <rPh sb="13" eb="14">
@@ -167,10 +167,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>algerian_condensed_std_R</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Menu</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -179,11 +175,36 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Battle</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>バトルシーン</t>
+    <t>Battle_middle</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Battle_low</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Battle_high</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初級バトルシーン</t>
+    <rPh sb="0" eb="2">
+      <t>ショキュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中級バトルシーン</t>
+    <rPh sb="0" eb="2">
+      <t>チュウキュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上級バトルシーン</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウキュウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -722,36 +743,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56FD5846-B9E1-4646-B450-465F191AEEE7}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="30.69921875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="35.59765625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="35.59765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="35.59765625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -764,9 +780,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{990E8BB5-1F32-483A-B0EA-63F0C467CE89}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -792,10 +810,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
@@ -803,7 +821,23 @@
         <v>27</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" s="4" t="s">
         <v>28</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/src/resources/excel/InitializeData.xlsx
+++ b/src/resources/excel/InitializeData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuki0\Documents\compass\sourcetree\BlackJackRPG\src\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91D88017-AFEF-414A-A984-703A4256EC66}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBD555B0-8C0A-4C35-9755-61EA7A82CE8E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8964" activeTab="1" xr2:uid="{C6B2B902-7F34-4F89-9D96-31CC10F27538}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8964" activeTab="2" xr2:uid="{C6B2B902-7F34-4F89-9D96-31CC10F27538}"/>
   </bookViews>
   <sheets>
     <sheet name="Image" sheetId="3" r:id="rId1"/>
@@ -50,10 +50,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Title</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>画像ファイル名(拡張子を含む)</t>
     <rPh sb="0" eb="2">
       <t>ガゾウ</t>
@@ -205,6 +201,10 @@
     <rPh sb="0" eb="2">
       <t>ジョウキュウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Title</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -670,10 +670,10 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -681,57 +681,57 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="C4" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>19</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>21</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -745,7 +745,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56FD5846-B9E1-4646-B450-465F191AEEE7}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -757,7 +757,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -765,10 +765,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -782,8 +782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{990E8BB5-1F32-483A-B0EA-63F0C467CE89}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -802,7 +802,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -810,34 +810,34 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/src/resources/excel/InitializeData.xlsx
+++ b/src/resources/excel/InitializeData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuki0\Documents\compass\sourcetree\BlackJackRPG\src\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBD555B0-8C0A-4C35-9755-61EA7A82CE8E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2DD6058-03F8-451B-8950-58F47815E03B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8964" activeTab="2" xr2:uid="{C6B2B902-7F34-4F89-9D96-31CC10F27538}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8964" xr2:uid="{C6B2B902-7F34-4F89-9D96-31CC10F27538}"/>
   </bookViews>
   <sheets>
     <sheet name="Image" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
   <si>
     <t>シーンのExcelファイル名(.xlsx省略)</t>
     <rPh sb="13" eb="14">
@@ -205,6 +205,93 @@
   </si>
   <si>
     <t>Title</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>modeselect</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モードセレクト画面</t>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>push</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モードセレクト・Pushボタン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lock</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モードセレクト・ロックボタン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勝利表示</t>
+    <rPh sb="0" eb="2">
+      <t>ショウリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lose</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敗北表示</t>
+    <rPh sb="0" eb="4">
+      <t>ハイボクヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>title.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>modeselect.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>push.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lock.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lose.png</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -657,9 +744,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{209337E7-0A65-4EE1-86B5-DF6B2B4FC877}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -732,6 +821,72 @@
       </c>
       <c r="C6" s="1" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -782,7 +937,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{990E8BB5-1F32-483A-B0EA-63F0C467CE89}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/src/resources/excel/InitializeData.xlsx
+++ b/src/resources/excel/InitializeData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuki0\Documents\compass\sourcetree\BlackJackRPG\src\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2DD6058-03F8-451B-8950-58F47815E03B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD1FED73-B563-484A-9962-E0F21732223B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8964" xr2:uid="{C6B2B902-7F34-4F89-9D96-31CC10F27538}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
   <si>
     <t>シーンのExcelファイル名(.xlsx省略)</t>
     <rPh sb="13" eb="14">
@@ -292,6 +292,21 @@
   </si>
   <si>
     <t>lose.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bust.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bust</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バースト表示</t>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -744,10 +759,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{209337E7-0A65-4EE1-86B5-DF6B2B4FC877}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -887,6 +902,17 @@
       </c>
       <c r="C12" s="1" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A13" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/src/resources/excel/InitializeData.xlsx
+++ b/src/resources/excel/InitializeData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuki0\Documents\compass\sourcetree\BlackJackRPG\src\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD1FED73-B563-484A-9962-E0F21732223B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7173EC2C-B91E-44A9-9EED-792F5B6C5753}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8964" xr2:uid="{C6B2B902-7F34-4F89-9D96-31CC10F27538}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="56">
   <si>
     <t>シーンのExcelファイル名(.xlsx省略)</t>
     <rPh sb="13" eb="14">
@@ -305,6 +305,21 @@
   <si>
     <t>バースト表示</t>
     <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>shuffle.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>shuffle</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シャッフル表示</t>
+    <rPh sb="5" eb="7">
       <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -759,10 +774,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{209337E7-0A65-4EE1-86B5-DF6B2B4FC877}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -913,6 +928,17 @@
       </c>
       <c r="C13" s="1" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A14" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
